--- a/example/NHANES-2017-2018/SDDs/SDD-NHANES-2017-2018-LAB-RESULTS.xlsx
+++ b/example/NHANES-2017-2018/SDDs/SDD-NHANES-2017-2018-LAB-RESULTS.xlsx
@@ -8,13 +8,13 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="InfoSheet" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Prefixes" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Mapping Process" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="Timeline" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="New Concepts" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="Codebook" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="Dictionary Mapping" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="InfoSheet" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="Prefixes" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="Mapping Process" sheetId="3" state="visible" r:id="rId5"/>
+    <sheet name="Timeline" sheetId="4" state="visible" r:id="rId6"/>
+    <sheet name="New Concepts" sheetId="5" state="visible" r:id="rId7"/>
+    <sheet name="Codebook" sheetId="6" state="visible" r:id="rId8"/>
+    <sheet name="Dictionary Mapping" sheetId="7" state="visible" r:id="rId9"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -516,20 +516,24 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -605,91 +609,197 @@
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="LibreOffice">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="ffffff"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="ffffff"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="18a303"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="0369a3"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="a33e03"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8e03a3"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="c99c00"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="c9211e"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000ee"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="551a8b"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme>
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4765625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.48046875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="20.18"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="B10" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -705,7 +815,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -715,13 +825,13 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4765625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.48046875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>17</v>
       </c>
     </row>
@@ -737,7 +847,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -747,16 +857,16 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4765625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.48046875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>20</v>
       </c>
     </row>
@@ -772,7 +882,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -782,25 +892,25 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4765625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.48046875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="1" t="s">
         <v>26</v>
       </c>
     </row>
@@ -816,7 +926,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -826,51 +936,51 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4765625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.48046875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="14.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="12.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="14.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="12.51"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="J1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="K1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="L1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="M1" s="1" t="s">
         <v>38</v>
       </c>
     </row>
@@ -886,7 +996,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -896,82 +1006,82 @@
       <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4765625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.48046875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="12.51"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="1" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="1" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" s="1" t="s">
         <v>50</v>
       </c>
     </row>
@@ -987,7 +1097,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -997,761 +1107,761 @@
       <selection pane="topLeft" activeCell="H37" activeCellId="0" sqref="H37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4765625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.48046875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="17.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="0" width="13.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="11.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="15.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="14.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="12.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="17.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="1" width="13.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="11.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="15.16"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="J1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="K1" s="1" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="F3" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="G3" s="0" t="s">
+      <c r="G3" s="1" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="3" t="s">
+      <c r="A4" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3" t="s">
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F5" s="0" t="s">
+      <c r="F5" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="H5" s="0" t="s">
+      <c r="H5" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="I5" s="0" t="s">
+      <c r="I5" s="1" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="F6" s="0" t="s">
+      <c r="A6" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="H6" s="0" t="s">
+      <c r="H6" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="I6" s="0" t="s">
+      <c r="I6" s="1" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F7" s="0" t="s">
+      <c r="F7" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="H7" s="0" t="s">
+      <c r="H7" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="I7" s="0" t="s">
+      <c r="I7" s="1" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F8" s="0" t="s">
+      <c r="F8" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="H8" s="0" t="s">
+      <c r="H8" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="I8" s="0" t="s">
+      <c r="I8" s="1" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E9" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="I9" s="0" t="s">
+      <c r="E9" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="A10" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="F10" s="0" t="s">
+      <c r="F10" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="H10" s="0" t="s">
+      <c r="H10" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="I10" s="0" t="s">
+      <c r="I10" s="1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="A11" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C11" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="D11" s="0" t="s">
+      <c r="C11" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="E11" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="I11" s="0" t="s">
+      <c r="E11" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I11" s="1" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="A12" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C12" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="D12" s="0" t="s">
+      <c r="C12" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E12" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="I12" s="0" t="s">
+      <c r="E12" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I12" s="1" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="A13" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="F13" s="0" t="s">
+      <c r="F13" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="H13" s="0" t="s">
+      <c r="H13" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="I13" s="0" t="s">
+      <c r="I13" s="1" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="A14" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="C14" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="D14" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E14" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="I14" s="0" t="s">
+      <c r="E14" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I14" s="1" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="A15" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="F15" s="0" t="s">
+      <c r="F15" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="H15" s="0" t="s">
+      <c r="H15" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="I15" s="0" t="s">
+      <c r="I15" s="1" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+      <c r="A16" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D16" s="0" t="s">
+      <c r="D16" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="E16" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="I16" s="0" t="s">
+      <c r="E16" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I16" s="1" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+      <c r="A17" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="C17" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E17" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="I17" s="0" t="s">
+      <c r="E17" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I17" s="1" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+      <c r="A18" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="F18" s="0" t="s">
+      <c r="F18" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="H18" s="0" t="s">
+      <c r="H18" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="I18" s="0" t="s">
+      <c r="I18" s="1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+      <c r="A19" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="B19" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C19" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="D19" s="0" t="s">
+      <c r="C19" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E19" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="I19" s="0" t="s">
+      <c r="E19" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I19" s="1" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+      <c r="A20" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="F20" s="0" t="s">
+      <c r="F20" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="H20" s="0" t="s">
+      <c r="H20" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="I20" s="0" t="s">
+      <c r="I20" s="1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+      <c r="A21" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B21" s="0" t="s">
+      <c r="B21" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C21" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="D21" s="0" t="s">
+      <c r="C21" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E21" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="I21" s="0" t="s">
+      <c r="E21" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I21" s="1" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+      <c r="A22" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="B22" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C22" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="D22" s="0" t="s">
+      <c r="C22" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E22" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="I22" s="0" t="s">
+      <c r="E22" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I22" s="1" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+      <c r="A23" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="F23" s="0" t="s">
+      <c r="F23" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="H23" s="0" t="s">
+      <c r="H23" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="I23" s="0" t="s">
+      <c r="I23" s="1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+      <c r="A24" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B24" s="0" t="s">
+      <c r="B24" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C24" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="D24" s="0" t="s">
+      <c r="C24" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E24" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="I24" s="0" t="s">
+      <c r="E24" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I24" s="1" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+      <c r="A25" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B25" s="0" t="s">
+      <c r="B25" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C25" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="D25" s="0" t="s">
+      <c r="C25" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E25" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="I25" s="0" t="s">
+      <c r="E25" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I25" s="1" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+      <c r="A26" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="F26" s="0" t="s">
+      <c r="F26" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="I26" s="0" t="s">
+      <c r="I26" s="1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+      <c r="A27" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B27" s="0" t="s">
+      <c r="B27" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C27" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="D27" s="0" t="s">
+      <c r="C27" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="E27" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="I27" s="0" t="s">
+      <c r="E27" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I27" s="1" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+      <c r="A28" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="F28" s="0" t="s">
+      <c r="F28" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="I28" s="0" t="s">
+      <c r="I28" s="1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+      <c r="A29" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B29" s="0" t="s">
+      <c r="B29" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C29" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="D29" s="0" t="s">
+      <c r="C29" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E29" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="I29" s="0" t="s">
+      <c r="E29" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I29" s="1" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+      <c r="A30" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="F30" s="0" t="s">
+      <c r="F30" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="I30" s="0" t="s">
+      <c r="I30" s="1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+      <c r="A31" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B31" s="0" t="s">
+      <c r="B31" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C31" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="D31" s="0" t="s">
+      <c r="C31" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="E31" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="I31" s="0" t="s">
+      <c r="E31" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I31" s="1" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
+      <c r="A32" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="F32" s="0" t="s">
+      <c r="F32" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="I32" s="0" t="s">
+      <c r="I32" s="1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
+      <c r="A33" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B33" s="0" t="s">
+      <c r="B33" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C33" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="D33" s="0" t="s">
+      <c r="C33" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="E33" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="I33" s="0" t="s">
+      <c r="E33" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I33" s="1" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
+      <c r="A34" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="F34" s="0" t="s">
+      <c r="F34" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="H34" s="0" t="s">
+      <c r="H34" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="I34" s="0" t="s">
+      <c r="I34" s="1" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
+      <c r="A35" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B35" s="0" t="s">
+      <c r="B35" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C35" s="0" t="s">
+      <c r="C35" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D35" s="0" t="s">
+      <c r="D35" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E35" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="I35" s="0" t="s">
+      <c r="E35" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I35" s="1" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
+      <c r="A36" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B36" s="0" t="s">
+      <c r="B36" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C36" s="0" t="s">
+      <c r="C36" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D36" s="0" t="s">
+      <c r="D36" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E36" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="I36" s="0" t="s">
+      <c r="E36" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I36" s="1" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
+      <c r="A37" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="F37" s="0" t="s">
+      <c r="F37" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="H37" s="0" t="s">
+      <c r="H37" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="I37" s="0" t="s">
+      <c r="I37" s="1" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
+      <c r="A38" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B38" s="0" t="s">
+      <c r="B38" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C38" s="0" t="s">
+      <c r="C38" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D38" s="0" t="s">
+      <c r="D38" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E38" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="I38" s="0" t="s">
+      <c r="E38" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I38" s="1" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
+      <c r="A39" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B39" s="0" t="s">
+      <c r="B39" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C39" s="0" t="s">
+      <c r="C39" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D39" s="0" t="s">
+      <c r="D39" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E39" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="I39" s="0" t="s">
+      <c r="E39" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I39" s="1" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
+      <c r="A40" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B40" s="0" t="s">
+      <c r="B40" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C40" s="0" t="s">
+      <c r="C40" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D40" s="0" t="s">
+      <c r="D40" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E40" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="I40" s="0" t="s">
+      <c r="E40" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I40" s="1" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
+      <c r="A41" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B41" s="0" t="s">
+      <c r="B41" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C41" s="0" t="s">
+      <c r="C41" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D41" s="0" t="s">
+      <c r="D41" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E41" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="I41" s="0" t="s">
+      <c r="E41" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I41" s="1" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
+      <c r="A42" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B42" s="0" t="s">
+      <c r="B42" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C42" s="0" t="s">
+      <c r="C42" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D42" s="0" t="s">
+      <c r="D42" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E42" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="I42" s="0" t="s">
+      <c r="E42" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I42" s="1" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
+      <c r="A43" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B43" s="0" t="s">
+      <c r="B43" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C43" s="0" t="s">
+      <c r="C43" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D43" s="0" t="s">
+      <c r="D43" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E43" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="I43" s="0" t="s">
+      <c r="E43" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I43" s="1" t="s">
         <v>120</v>
       </c>
     </row>

--- a/example/NHANES-2017-2018/SDDs/SDD-NHANES-2017-2018-LAB-RESULTS.xlsx
+++ b/example/NHANES-2017-2018/SDDs/SDD-NHANES-2017-2018-LAB-RESULTS.xlsx
@@ -8,13 +8,13 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="InfoSheet" sheetId="1" state="visible" r:id="rId3"/>
-    <sheet name="Prefixes" sheetId="2" state="visible" r:id="rId4"/>
-    <sheet name="Mapping Process" sheetId="3" state="visible" r:id="rId5"/>
-    <sheet name="Timeline" sheetId="4" state="visible" r:id="rId6"/>
-    <sheet name="New Concepts" sheetId="5" state="visible" r:id="rId7"/>
-    <sheet name="Codebook" sheetId="6" state="visible" r:id="rId8"/>
-    <sheet name="Dictionary Mapping" sheetId="7" state="visible" r:id="rId9"/>
+    <sheet name="InfoSheet" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Prefixes" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Mapping Process" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Timeline" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="New Concepts" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="Codebook" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="Dictionary Mapping" sheetId="7" state="visible" r:id="rId8"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -609,124 +609,18 @@
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
-  <a:themeElements>
-    <a:clrScheme name="LibreOffice">
-      <a:dk1>
-        <a:srgbClr val="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:srgbClr val="ffffff"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="000000"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="ffffff"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="18a303"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="0369a3"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="a33e03"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8e03a3"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="c99c00"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="c9211e"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000ee"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="551a8b"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme>
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:prstDash val="solid"/>
-          <a:miter/>
-        </a:ln>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:prstDash val="solid"/>
-          <a:miter/>
-        </a:ln>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:prstDash val="solid"/>
-          <a:miter/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+      <selection pane="topLeft" activeCell="G21" activeCellId="0" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.48046875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.46875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="20.18"/>
@@ -815,7 +709,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -825,7 +719,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.48046875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.46875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -847,7 +741,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -857,7 +751,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.48046875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.46875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -882,7 +776,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -892,7 +786,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.48046875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.46875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -926,7 +820,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -936,7 +830,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.48046875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.46875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="14.51"/>
@@ -996,7 +890,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -1006,7 +900,7 @@
       <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.48046875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.46875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="12.51"/>
@@ -1097,7 +991,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -1107,14 +1001,14 @@
       <selection pane="topLeft" activeCell="H37" activeCellId="0" sqref="H37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.48046875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.46875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="14.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="12.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="17.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="1" width="13.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="1" width="13.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="11.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="15.16"/>
